--- a/Fontanili/test_files/busca_sfr2_sfr_data.xlsx
+++ b/Fontanili/test_files/busca_sfr2_sfr_data.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\hm\Fontanili\test_files\sfr_model_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\hm\Fontanili\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7427917-3725-4B5A-8A32-9D5B25EA7E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F7E63F1-36E1-4A75-90C9-ECC5AEF2A108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="10155" xr2:uid="{3815B33F-C467-47DB-BE3E-F164846AD30F}"/>
+    <workbookView xWindow="39810" yWindow="1410" windowWidth="21600" windowHeight="10800" activeTab="4" xr2:uid="{3815B33F-C467-47DB-BE3E-F164846AD30F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM1" sheetId="2" r:id="rId1"/>
     <sheet name="ITEM2" sheetId="1" r:id="rId2"/>
     <sheet name="ITEM5" sheetId="3" r:id="rId3"/>
     <sheet name="ITEM6a" sheetId="4" r:id="rId4"/>
-    <sheet name="ITEM6b" sheetId="5" r:id="rId5"/>
-    <sheet name="ITEM6c" sheetId="6" r:id="rId6"/>
+    <sheet name="ITEM6abc" sheetId="7" r:id="rId5"/>
+    <sheet name="ITEM6b" sheetId="5" r:id="rId6"/>
+    <sheet name="ITEM6c" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>KRCH</t>
   </si>
@@ -526,13 +527,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5CC6E6-61D0-4A7E-8B48-533D5D72D4B4}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -570,7 +571,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-328</v>
       </c>
@@ -621,9 +622,9 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -687,7 +688,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -719,7 +720,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -751,7 +752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
@@ -783,7 +784,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1</v>
       </c>
@@ -815,7 +816,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1</v>
       </c>
@@ -847,7 +848,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
@@ -879,7 +880,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>1</v>
       </c>
@@ -911,7 +912,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>1</v>
       </c>
@@ -943,7 +944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1</v>
       </c>
@@ -975,7 +976,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1071,7 +1072,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1295,7 +1296,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1327,7 +1328,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1615,7 +1616,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1679,7 +1680,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1775,7 +1776,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1871,7 +1872,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1903,7 +1904,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1967,7 +1968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1999,7 +2000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2031,7 +2032,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2063,7 +2064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2095,7 +2096,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>1</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>1</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>1</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>1</v>
       </c>
@@ -2703,7 +2704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>1</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>1</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>1</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>1</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>1</v>
       </c>
@@ -2959,7 +2960,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>1</v>
       </c>
@@ -3023,7 +3024,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>1</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>1</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>1</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>1</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>1</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>1</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>1</v>
       </c>
@@ -3247,7 +3248,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>1</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>1</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>1</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>1</v>
       </c>
@@ -3407,7 +3408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>1</v>
       </c>
@@ -3439,7 +3440,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>1</v>
       </c>
@@ -3471,7 +3472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>1</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>1</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>1</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>1</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>1</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>1</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>1</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>1</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>1</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>1</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>1</v>
       </c>
@@ -3983,7 +3984,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>1</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>1</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>1</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>1</v>
       </c>
@@ -4111,7 +4112,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>1</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>1</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>1</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>1</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>1</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>1</v>
       </c>
@@ -4303,7 +4304,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>1</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>1</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>1</v>
       </c>
@@ -4399,7 +4400,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>1</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>1</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>1</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>1</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>1</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>1</v>
       </c>
@@ -4623,7 +4624,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>1</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>1</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>1</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>1</v>
       </c>
@@ -4751,7 +4752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>1</v>
       </c>
@@ -4783,7 +4784,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>1</v>
       </c>
@@ -4815,7 +4816,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>1</v>
       </c>
@@ -4847,7 +4848,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>1</v>
       </c>
@@ -4879,7 +4880,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>1</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>1</v>
       </c>
@@ -4943,7 +4944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>1</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>1</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>1</v>
       </c>
@@ -5039,7 +5040,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>1</v>
       </c>
@@ -5071,7 +5072,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>1</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5135,7 +5136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>1</v>
       </c>
@@ -5167,7 +5168,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>1</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>1</v>
       </c>
@@ -5231,7 +5232,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>1</v>
       </c>
@@ -5263,7 +5264,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>1</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>1</v>
       </c>
@@ -5327,7 +5328,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>1</v>
       </c>
@@ -5359,7 +5360,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>1</v>
       </c>
@@ -5391,7 +5392,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>1</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>1</v>
       </c>
@@ -5455,7 +5456,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>1</v>
       </c>
@@ -5487,7 +5488,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>1</v>
       </c>
@@ -5519,7 +5520,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>1</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>1</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>1</v>
       </c>
@@ -5615,7 +5616,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>1</v>
       </c>
@@ -5647,7 +5648,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>1</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>1</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>1</v>
       </c>
@@ -5743,7 +5744,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>1</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>1</v>
       </c>
@@ -5807,7 +5808,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>1</v>
       </c>
@@ -5839,7 +5840,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>1</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>1</v>
       </c>
@@ -5903,7 +5904,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>1</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>1</v>
       </c>
@@ -5967,7 +5968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>1</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>1</v>
       </c>
@@ -6031,7 +6032,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>1</v>
       </c>
@@ -6063,7 +6064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>1</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>1</v>
       </c>
@@ -6127,7 +6128,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>1</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>1</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>1</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>1</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>1</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>1</v>
       </c>
@@ -6319,7 +6320,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>1</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>1</v>
       </c>
@@ -6383,7 +6384,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>1</v>
       </c>
@@ -6415,7 +6416,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>1</v>
       </c>
@@ -6479,7 +6480,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>1</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>1</v>
       </c>
@@ -6575,7 +6576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>1</v>
       </c>
@@ -6607,7 +6608,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>1</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>1</v>
       </c>
@@ -6671,7 +6672,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>1</v>
       </c>
@@ -6703,7 +6704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>1</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>1</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>1</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>1</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>1</v>
       </c>
@@ -6863,7 +6864,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>1</v>
       </c>
@@ -6895,7 +6896,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>1</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>1</v>
       </c>
@@ -6959,7 +6960,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>1</v>
       </c>
@@ -6991,7 +6992,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>1</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>1</v>
       </c>
@@ -7055,7 +7056,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>1</v>
       </c>
@@ -7087,7 +7088,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>1</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>1</v>
       </c>
@@ -7151,7 +7152,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>1</v>
       </c>
@@ -7183,7 +7184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>1</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>1</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>1</v>
       </c>
@@ -7279,7 +7280,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>1</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>1</v>
       </c>
@@ -7343,7 +7344,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>1</v>
       </c>
@@ -7375,7 +7376,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>1</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>1</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>1</v>
       </c>
@@ -7471,7 +7472,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>1</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>1</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>1</v>
       </c>
@@ -7567,7 +7568,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>1</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>1</v>
       </c>
@@ -7631,7 +7632,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>1</v>
       </c>
@@ -7663,7 +7664,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>1</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>1</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>1</v>
       </c>
@@ -7759,7 +7760,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>1</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>1</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>1</v>
       </c>
@@ -7855,7 +7856,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>1</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>1</v>
       </c>
@@ -7919,7 +7920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>1</v>
       </c>
@@ -7951,7 +7952,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>1</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>1</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>1</v>
       </c>
@@ -8047,7 +8048,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>1</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>1</v>
       </c>
@@ -8111,7 +8112,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>1</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>1</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>1</v>
       </c>
@@ -8207,7 +8208,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>1</v>
       </c>
@@ -8239,7 +8240,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>1</v>
       </c>
@@ -8271,7 +8272,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>1</v>
       </c>
@@ -8303,7 +8304,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>1</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>1</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>1</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>1</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>1</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>1</v>
       </c>
@@ -8495,7 +8496,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>1</v>
       </c>
@@ -8527,7 +8528,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>1</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>1</v>
       </c>
@@ -8591,7 +8592,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>1</v>
       </c>
@@ -8623,7 +8624,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>1</v>
       </c>
@@ -8655,7 +8656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>1</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>1</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>1</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>1</v>
       </c>
@@ -8783,7 +8784,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>1</v>
       </c>
@@ -8815,7 +8816,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>1</v>
       </c>
@@ -8847,7 +8848,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>1</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>1</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>1</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>1</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>1</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>1</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>1</v>
       </c>
@@ -9071,7 +9072,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>1</v>
       </c>
@@ -9103,7 +9104,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>1</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>1</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>1</v>
       </c>
@@ -9199,7 +9200,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>1</v>
       </c>
@@ -9231,7 +9232,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>1</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>1</v>
       </c>
@@ -9295,7 +9296,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>1</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>1</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>1</v>
       </c>
@@ -9391,7 +9392,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>1</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>1</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>1</v>
       </c>
@@ -9487,7 +9488,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>1</v>
       </c>
@@ -9519,7 +9520,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>1</v>
       </c>
@@ -9551,7 +9552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>1</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>1</v>
       </c>
@@ -9615,7 +9616,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>1</v>
       </c>
@@ -9647,7 +9648,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>1</v>
       </c>
@@ -9679,7 +9680,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>1</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>1</v>
       </c>
@@ -9743,7 +9744,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>1</v>
       </c>
@@ -9775,7 +9776,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>1</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>1</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>1</v>
       </c>
@@ -9871,7 +9872,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>1</v>
       </c>
@@ -9903,7 +9904,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>1</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>1</v>
       </c>
@@ -9967,7 +9968,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>1</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>1</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>1</v>
       </c>
@@ -10063,7 +10064,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>1</v>
       </c>
@@ -10095,7 +10096,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>1</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>1</v>
       </c>
@@ -10159,7 +10160,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>1</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>1</v>
       </c>
@@ -10223,7 +10224,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>1</v>
       </c>
@@ -10255,7 +10256,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>1</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>1</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>1</v>
       </c>
@@ -10351,7 +10352,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>1</v>
       </c>
@@ -10383,7 +10384,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>1</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>1</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>1</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>1</v>
       </c>
@@ -10511,7 +10512,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>1</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>1</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>1</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>1</v>
       </c>
@@ -10639,7 +10640,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>1</v>
       </c>
@@ -10671,7 +10672,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>1</v>
       </c>
@@ -10703,7 +10704,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>1</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>1</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>1</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>1</v>
       </c>
@@ -10831,7 +10832,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>1</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>1</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>1</v>
       </c>
@@ -10927,7 +10928,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>1</v>
       </c>
@@ -10959,7 +10960,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>1</v>
       </c>
@@ -10991,7 +10992,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>1</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>1</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>1</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>1</v>
       </c>
@@ -11119,7 +11120,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>1</v>
       </c>
@@ -11164,9 +11165,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>7</v>
       </c>
@@ -11204,12 +11205,12 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11267,7 +11268,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11296,7 +11297,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11383,7 +11384,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11412,7 +11413,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11447,22 +11448,292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082F8143-BE01-4585-930F-FED9AEE21B82}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25F66ED0-3422-4DE9-BF71-3028C78BAFA0}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
     </row>
@@ -11472,6 +11743,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082F8143-BE01-4585-930F-FED9AEE21B82}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DF6B84-E9B7-4D35-8996-7E7B9ADB8AF4}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -11479,14 +11775,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>3</v>
       </c>
